--- a/be/public/files/data-analytics.xlsx
+++ b/be/public/files/data-analytics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\MERN-COMMS\BRGY-PROFILING\FINAL\brgy-profiling\be\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\MERN-COMMS\BRGY-PROFILING\FINAL\brgy-profiling\from_them\be\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B01F953-F54F-4706-A3D5-35DBA8A721AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD7D07-8F2C-4A58-BA95-A4F644892910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47835" yWindow="5730" windowWidth="18060" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>PANGKALAHATANG BAHAGI NG POPULASYON</t>
   </si>
@@ -115,13 +115,25 @@
   </si>
   <si>
     <t>Kabuuang bilang (Total)</t>
+  </si>
+  <si>
+    <t>FAMILY PROFILE</t>
+  </si>
+  <si>
+    <t>PRINTED BY:</t>
+  </si>
+  <si>
+    <t>DATE PRINTED:</t>
+  </si>
+  <si>
+    <t>REPORT TYPE:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +174,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -315,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -323,14 +348,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -359,95 +459,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,22 +503,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>187558</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>27695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>345597</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>511636</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28456</xdr:rowOff>
+      <xdr:rowOff>17858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456D2186-5C6A-4897-8674-F07886E40E7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A78DDD-61C7-419D-B9A0-89582B5F21EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -495,7 +527,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -508,8 +540,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5667375" y="28575"/>
-          <a:ext cx="3822222" cy="952381"/>
+          <a:off x="5652527" y="27695"/>
+          <a:ext cx="931297" cy="942663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC120E2B-79D4-452F-A0AD-777D6CA7C76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8501064" y="29172"/>
+          <a:ext cx="947142" cy="947142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -787,10 +869,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A11:X40"/>
+  <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,626 +880,741 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="25" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="35"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="35"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="36"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="37"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="29"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38" t="s">
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38" t="s">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39" t="s">
+      <c r="J31" s="14"/>
+      <c r="K31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39" t="s">
+      <c r="L31" s="14"/>
+      <c r="M31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39" t="s">
+      <c r="N31" s="14"/>
+      <c r="O31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8">
         <f>SUM(I33:J39)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40">
+      <c r="J40" s="8"/>
+      <c r="K40" s="8">
         <f>SUM(K33:L39)</f>
         <v>0</v>
       </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40">
+      <c r="L40" s="8"/>
+      <c r="M40" s="8">
         <f>SUM(M33:N39)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40">
+      <c r="N40" s="8"/>
+      <c r="O40" s="8">
         <f>SUM(O33:P39)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="42">
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9">
         <f>SUM(Q33:T39)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="42">
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="9">
         <f>SUM(U33:X39)</f>
         <v>0</v>
       </c>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="44"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q42" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q43" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q44" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="U39:X39"/>
+  <mergeCells count="90">
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A11:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="K2:O4"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I11:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I23:L25"/>
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H25"/>
+    <mergeCell ref="I19:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="A29:H32"/>
+    <mergeCell ref="M29:P30"/>
+    <mergeCell ref="Q29:T32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="U29:X32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="O31:P32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="U36:X36"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="Q37:T37"/>
@@ -1428,67 +1625,18 @@
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="Q38:T38"/>
     <mergeCell ref="U38:X38"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U29:X32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="O31:P32"/>
-    <mergeCell ref="A29:H32"/>
-    <mergeCell ref="M29:P30"/>
-    <mergeCell ref="Q29:T32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I29:L30"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I23:L25"/>
-    <mergeCell ref="A19:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H25"/>
-    <mergeCell ref="I19:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I11:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A11:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:T40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
